--- a/Unity/Assets/Config/Excel/MainTaskConfig.xlsx
+++ b/Unity/Assets/Config/Excel/MainTaskConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>cs</t>
   </si>
@@ -40,6 +40,9 @@
     <t>是否自动提交</t>
   </si>
   <si>
+    <t>需要的数量</t>
+  </si>
+  <si>
     <t>MainId</t>
   </si>
   <si>
@@ -56,6 +59,9 @@
   </si>
   <si>
     <t>AutoComplete</t>
+  </si>
+  <si>
+    <t>NeedProgress</t>
   </si>
   <si>
     <t>int</t>
@@ -108,7 +114,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -122,21 +143,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,15 +180,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,7 +202,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,15 +242,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,13 +259,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,79 +279,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -357,103 +459,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,6 +470,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -506,41 +536,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -559,8 +554,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,148 +575,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1042,10 +1048,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="G2:J2 O8"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -1055,11 +1061,11 @@
     <col min="6" max="6" width="11.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="23.875" style="1" customWidth="1"/>
     <col min="8" max="8" width="30.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="9" max="10" width="11.625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:9">
+    <row r="1" ht="16.5" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1071,8 +1077,9 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
     </row>
-    <row r="2" ht="16.5" spans="1:9">
+    <row r="2" ht="16.5" spans="1:10">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1082,8 +1089,9 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
     </row>
-    <row r="3" ht="16.5" spans="1:9">
+    <row r="3" ht="16.5" spans="1:10">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
@@ -1107,58 +1115,67 @@
       <c r="I3" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="J3" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" ht="16.5" spans="1:9">
+    <row r="4" ht="16.5" spans="1:10">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:9">
+    <row r="5" ht="16.5" spans="1:10">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="3:9">
+    <row r="6" ht="16.5" spans="3:10">
       <c r="C6" s="2">
         <v>1</v>
       </c>
@@ -1172,16 +1189,19 @@
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I6" s="2">
         <v>0</v>
       </c>
+      <c r="J6" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="16.5" spans="3:9">
+    <row r="7" s="1" customFormat="1" ht="16.5" spans="3:10">
       <c r="C7" s="2">
         <v>2</v>
       </c>
@@ -1195,12 +1215,15 @@
         <v>2</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2">
         <v>1</v>
       </c>
     </row>
